--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -192,52 +258,52 @@
     <col min="6" max="6" width="15.64453125" customWidth="true"/>
     <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="15.77734375" customWidth="true"/>
     <col min="10" max="10" width="15.64453125" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29457695793412719</v>
+        <v>0.29507446025572648</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28462793313384543</v>
+        <v>0.28488472061116815</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0049819088964661168</v>
+        <v>-0.0050673736652659994</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0037743136271041469</v>
+        <v>-0.0038042450924339688</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00011903171324830996</v>
+        <v>1.4541014950868663e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.00068046156540430079</v>
+        <v>-0.00068683337149303466</v>
       </c>
       <c r="H3" s="0">
-        <v>1.7649386192237701e-05</v>
+        <v>1.3320946575610363e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-5.4214340900270286e-05</v>
+        <v>-6.4344696336020616e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00059480746984746924</v>
+        <v>-0.000594804780555791</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30392315271108611</v>
+        <v>0.30517591522260346</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0099408988475977351</v>
+        <v>0.010957127846091567</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>7.3236459422411696e-05</v>
+        <v>7.3143100300049666e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>9.3210068454295194e-05</v>
+        <v>9.2314521310421355e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00019013831232476567</v>
+        <v>0.00018651169615766747</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0074949204746341796</v>
+        <v>0.0074711323008466958</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00084951601539078796</v>
+        <v>0.00085767449036932609</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00065329939941649595</v>
+        <v>0.00065329065635955086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.27447918750708034</v>
+        <v>0.2745050616522598</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.004145267277041861</v>
+        <v>-0.0051967491677327423</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.013406795408371421</v>
+        <v>-0.013506631386415625</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.003051292911392361</v>
+        <v>-0.0030632110221379045</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.010865817796812036</v>
+        <v>-0.010926540446605154</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0019601517588285189</v>
+        <v>0.0019600995745092851</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00033317557901304222</v>
+        <v>-0.00033515870118622432</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00049095689558134971</v>
+        <v>0.00049005938758289421</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-9.2724885784933875e-05</v>
+        <v>-9.2721808358176006e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.39517242468326452</v>
+        <v>0.39491494745036437</v>
       </c>
       <c r="C6" s="0">
-        <v>0.11785355368678603</v>
+        <v>0.11758614341361102</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00049539411465014433</v>
+        <v>-0.00049549039014046032</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00092239219014891014</v>
+        <v>0.00092066376893431146</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00048773011115729606</v>
+        <v>0.00049366142705446086</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0016735342134036354</v>
+        <v>-0.0016935727284737821</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0035984895161457198</v>
+        <v>0.0035984803071190119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.42460264761903299</v>
+        <v>0.42438295097988887</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0047631621820399175</v>
+        <v>-0.0047598472272456002</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00014655768102667818</v>
+        <v>-0.00014960793134126705</v>
       </c>
       <c r="F7" s="0">
-        <v>0.014456032314619123</v>
+        <v>0.014466868429236893</v>
       </c>
       <c r="G7" s="0">
-        <v>0.018501156330070951</v>
+        <v>0.018528138786262829</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00028491237893805169</v>
+        <v>0.00028460987191655725</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0010978417752069425</v>
+        <v>0.0010978416006950931</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.062426849091182457</v>
+        <v>0.065141168453587028</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.34098125761783993</v>
+        <v>-0.33818866425477395</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-8.2116297582392984e-05</v>
+        <v>-8.2269545284691201e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0020904888153801516</v>
+        <v>-0.0020911258196412287</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>4.0683774874038323e-06</v>
+        <v>3.4725746272415111e-06</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.020309105925749745</v>
+        <v>-0.020166277482631143</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0012831017512142662</v>
+        <v>0.0012830820014019251</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.035210165455724696</v>
+        <v>-0.032875329750751026</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.032210935246692489</v>
+        <v>-0.032436176059409988</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0082389442017057161</v>
+        <v>-0.0082488194863433433</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.064542860508732619</v>
+        <v>-0.064587876766507957</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0068564380985028754</v>
+        <v>0.0067561227077444332</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0020973917132237644</v>
+        <v>-0.0020976458168285948</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0024439268578119104</v>
+        <v>0.0024451386660015641</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00015275216713264705</v>
+        <v>0.00015275855100582714</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.26943185097580752</v>
+        <v>0.27807767228475777</v>
       </c>
       <c r="C10" s="0">
-        <v>0.31153551397581836</v>
+        <v>0.318130842328325</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0012125467521262507</v>
+        <v>-0.0012125238379237892</v>
       </c>
       <c r="F10" s="0">
-        <v>0.00030005909855714821</v>
+        <v>0.00029473834741564954</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00099257294341032398</v>
+        <v>-0.00099245827452594201</v>
       </c>
       <c r="I10" s="0">
-        <v>0.017623142424565693</v>
+        <v>0.017454357427848073</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.019375778972166594</v>
+        <v>-0.019486141546014399</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0032358003997058349</v>
+        <v>-0.0032358124096157903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.45934697597962088</v>
+        <v>0.46639768164132678</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.057123384515333921</v>
+        <v>0.056151979084515198</v>
       </c>
       <c r="E11" s="0">
-        <v>0.017332282377673203</v>
+        <v>0.0171900569688525</v>
       </c>
       <c r="F11" s="0">
-        <v>0.13186985596228726</v>
+        <v>0.13124765055976065</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0117512803818925</v>
+        <v>0.011785153509674552</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00025120640880420221</v>
+        <v>0.00022261680709178893</v>
       </c>
       <c r="I11" s="0">
-        <v>0.019078185511637563</v>
+        <v>0.019213601478681119</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.04749107015381529</v>
+        <v>-0.047491049052006795</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.39643063797242972</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.0037082264732596903</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.00042973061654225851</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.0002399752662982553</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00021384388200074972</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.053923638347662409</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.019348032562249595</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29507446025572648</v>
+        <v>0.29511685449060782</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28488472061116815</v>
+        <v>0.28500220869367343</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0050673736652659994</v>
+        <v>-0.0050424624513123921</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0038042450924339688</v>
+        <v>-0.0037900995178231684</v>
       </c>
       <c r="F3" s="0">
-        <v>1.4541014950868663e-05</v>
+        <v>7.2744716359313035e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.00068683337149303466</v>
+        <v>-0.00069549969430697848</v>
       </c>
       <c r="H3" s="0">
-        <v>1.3320946575610363e-05</v>
+        <v>1.55709968629609e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-6.4344696336020616e-05</v>
+        <v>-8.0094533073464625e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.000594804780555791</v>
+        <v>-0.00059480531364064504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30517591522260346</v>
+        <v>0.30616611067881233</v>
       </c>
       <c r="C4" s="0">
-        <v>0.010957127846091567</v>
+        <v>0.011830298355979948</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>7.3143100300049666e-05</v>
+        <v>7.3141538262980205e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>9.2314521310421355e-05</v>
+        <v>9.2333178610684672e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00018651169615766747</v>
+        <v>0.00018351971286049919</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0074711323008466958</v>
+        <v>0.0074452595038769888</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00085767449036932609</v>
+        <v>0.00088607003632538929</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00065329065635955086</v>
+        <v>0.0006532796592224055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.2745050616522598</v>
+        <v>0.27515609840739846</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0051967491677327423</v>
+        <v>-0.005424128742058127</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.013506631386415625</v>
+        <v>-0.013573464428997751</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0030632110221379045</v>
+        <v>-0.0030710505482257101</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.010926540446605154</v>
+        <v>-0.01096602252217887</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0019600995745092851</v>
+        <v>0.0019651402724192493</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00033515870118622432</v>
+        <v>-0.00033655560841410994</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00049005938758289421</v>
+        <v>0.00048878706209649653</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-9.2721808358176006e-05</v>
+        <v>-9.271775605507182e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.39491494745036437</v>
+        <v>0.39620578544827023</v>
       </c>
       <c r="C6" s="0">
-        <v>0.11758614341361102</v>
+        <v>0.11821720885590059</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00049549039014046032</v>
+        <v>-0.00049557240995963764</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00092066376893431146</v>
+        <v>0.00091393552728190504</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00049366142705446086</v>
+        <v>0.00048828425800684979</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0016935727284737821</v>
+        <v>-0.0016726521439011711</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0035984803071190119</v>
+        <v>0.0035984829535432028</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.42438295097988887</v>
+        <v>0.42502633475974216</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0047598472272456002</v>
+        <v>-0.0050070570849080724</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00014960793134126705</v>
+        <v>-0.00026081164049762218</v>
       </c>
       <c r="F7" s="0">
-        <v>0.014466868429236893</v>
+        <v>0.014111282337133877</v>
       </c>
       <c r="G7" s="0">
-        <v>0.018528138786262829</v>
+        <v>0.018592673517898749</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00028460987191655725</v>
+        <v>0.00028661243964080889</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0010978416006950931</v>
+        <v>0.0010978497422041711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.065141168453587028</v>
+        <v>0.054243991300288341</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.33818866425477395</v>
+        <v>-0.35001248696158799</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-8.2269545284691201e-05</v>
+        <v>-8.2532013636179942e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0020911258196412287</v>
+        <v>-0.0020943618950512804</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>3.4725746272415111e-06</v>
+        <v>3.9267432745682389e-06</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.020166277482631143</v>
+        <v>-0.019879995687544817</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0012830820014019251</v>
+        <v>0.0012831063550918786</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.032875329750751026</v>
+        <v>-0.043145599438632443</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.032436176059409988</v>
+        <v>-0.031815056007593753</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0082488194863433433</v>
+        <v>-0.0082833614997618807</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.064587876766507957</v>
+        <v>-0.064737748315007726</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0067561227077444332</v>
+        <v>0.0069449084721007219</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0020976458168285948</v>
+        <v>-0.0021017554665373988</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0024451386660015641</v>
+        <v>0.0024506825278783114</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00015275855100582714</v>
+        <v>0.00015273955000094652</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.27807767228475777</v>
+        <v>0.26783308730389621</v>
       </c>
       <c r="C10" s="0">
-        <v>0.318130842328325</v>
+        <v>0.31734992504931353</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0012125238379237892</v>
+        <v>-0.0012121657408445704</v>
       </c>
       <c r="F10" s="0">
-        <v>0.00029473834741564954</v>
+        <v>0.00031767548655013537</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00099245827452594201</v>
+        <v>-0.00099182365012282078</v>
       </c>
       <c r="I10" s="0">
-        <v>0.017454357427848073</v>
+        <v>0.017706120242670393</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.019486141546014399</v>
+        <v>-0.018955231488188794</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0032358124096157903</v>
+        <v>-0.0032358131568491766</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.46639768164132678</v>
+        <v>0.46279450723565263</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.056151979084515198</v>
+        <v>0.058642556176490231</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0171900569688525</v>
+        <v>0.017812838006234406</v>
       </c>
       <c r="F11" s="0">
-        <v>0.13124765055976065</v>
+        <v>0.13391701208062501</v>
       </c>
       <c r="G11" s="0">
-        <v>0.011785153509674552</v>
+        <v>0.011982640134535592</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00022261680709178893</v>
+        <v>0.00033810194668928853</v>
       </c>
       <c r="I11" s="0">
-        <v>0.019213601478681119</v>
+        <v>0.019759379328495693</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.047491049052006795</v>
+        <v>-0.047491107741313793</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.39643063797242972</v>
+        <v>0.29939445884582605</v>
       </c>
       <c r="C12" s="0">
-        <v>0.0037082264732596903</v>
+        <v>-0.033364267527011077</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.00042973061654225851</v>
+        <v>-0.00050660745619612554</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0002399752662982553</v>
+        <v>-0.01037043062839055</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00021384388200074972</v>
+        <v>-0.0061895915552268857</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.053923638347662409</v>
+        <v>-0.093845824826890412</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.019348032562249595</v>
+        <v>-0.019123326396111529</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.34340190804243481</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.079602780987153732</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.09637108161235533</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.0015121620938086961</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0044837866818392066</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0035768774317835165</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.0014892952086371569</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.21788676374372773</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.19400181408988004</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.098401897351330245</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.00033370681124147354</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.00046401805122581945</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-0.00020401844807243347</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.049853069058651694</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.0001433842320331391</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.29511685449060782</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.28500220869367343</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.30616611067881233</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.27515609840739846</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.39620578544827023</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.42502633475974216</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.054243991300288341</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>-0.043145599438632443</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.26783308730389621</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.46279450723565263</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.29939445884582605</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.34340190804243481</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.19400181408988004</v>
+        <v>0.21164554577874994</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.098401897351330245</v>
+        <v>-0.074180904076612902</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.00033370681124147354</v>
+        <v>-0.00030873037401806718</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.00046401805122581945</v>
+        <v>-0.0025549103004747554</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.00020401844807243347</v>
+        <v>-0.0083621118345484999</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.049853069058651694</v>
+        <v>-0.046202264576554672</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.0001433842320331391</v>
+        <v>-0.00014744110147596468</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.3514733212452526</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.35386160624601876</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.026154015532116257</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.052171575766253295</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0078675613195445318</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.13879923079915873</v>
       </c>
     </row>
   </sheetData>
